--- a/biology/Médecine/Chirurgie_maxillofaciale/Chirurgie_maxillofaciale.xlsx
+++ b/biology/Médecine/Chirurgie_maxillofaciale/Chirurgie_maxillofaciale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie maxillofaciale (CMF) et stomatologie est la spécialité de la chirurgie prenant en charge les pathologies de la cavité buccale et de la face, tant dans le domaine chirurgical que le domaine médical.
 Les domaines de prédilection sont :
@@ -524,11 +536,48 @@
           <t>Traumatismes généraux de la face</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La majeure partie ces traumatismes résultent d'accidents de la circulation ou de combats, qui touchent plus particulièrement une population d'hommes jeunes (70 % des cas)[réf. souhaitée].
-Examen du traumatisme
-Le premier examen d'un traumatisme facial doit impérativement prendre en compte les deux urgences vitales que sont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majeure partie ces traumatismes résultent d'accidents de la circulation ou de combats, qui touchent plus particulièrement une population d'hommes jeunes (70 % des cas)[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chirurgie_maxillofaciale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_maxillofaciale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Traumatismes généraux de la face</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Examen du traumatisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le premier examen d'un traumatisme facial doit impérativement prendre en compte les deux urgences vitales que sont :
 les hémorragies artérielles graves (par exemple : plaie de l’artère maxillaire) ;
 l'asphyxie : par un engorgement sanguin ou l'obstruction des voies respiratoires supérieures.
 Ces deux urgences doivent immédiatement être dépistées et traitées.
@@ -541,34 +590,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chirurgie_maxillofaciale</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chirurgie_maxillofaciale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>La chirurgie implantaire et préimplantaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les greffes osseuses préimplantaires
-La pose d'implant dentaire consiste à remplacer une racine dentaire manquante ; pour cela, il faut parfois augmenter la quantité d'os restante. Il existe différentes techniques d'augmentation, regroupées sous le terme de greffe osseuse préimplantaire :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les greffes osseuses préimplantaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La pose d'implant dentaire consiste à remplacer une racine dentaire manquante ; pour cela, il faut parfois augmenter la quantité d'os restante. Il existe différentes techniques d'augmentation, regroupées sous le terme de greffe osseuse préimplantaire :
 greffes d'apposition (ajout d'os autologue ou synthétique par-dessus l'os du patient permettant d'en augmenter l'épaisseur) ;
 greffe sinusienne (sinus lift) - (comblement du bas-fond du sinus maxillaire par de l'os autologue ou synthétique permettant d'augmenter la hauteur d'os) ;
 distraction osseuse (augmentation lente et progressive de l'os et de la Gencive du patient par un dispositif chirurgical temporaire).</t>
